--- a/Data/1week/windata30m.xlsx
+++ b/Data/1week/windata30m.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,18 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronmao/Documents/Programming/APEnviro-LTP/Data/1week/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DCCB5385-B22E-004D-8726-BCF277A0FACB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6517CFB0-8E35-7A46-A8D0-4232BBE10598}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26540"/>
+    <workbookView xWindow="1060" yWindow="820" windowWidth="51200" windowHeight="26540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="windata30m" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">windata30m!$A$2:$A$385</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">windata30m!$G$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">windata30m!$G$2:$G$385</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -77,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4130,11 +4125,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4228,6 +4223,14 @@
         <f>0.5*0.0765*0.000133*0.35*30429.57*(G2*2.24)^3</f>
         <v>0.50579502813246535</v>
       </c>
+      <c r="P2">
+        <f>O2*0.5</f>
+        <v>0.25289751406623268</v>
+      </c>
+      <c r="Q2">
+        <f>SUM(P2:P385)</f>
+        <v>259.51330467923134</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -4270,6 +4273,10 @@
         <f t="shared" ref="O3:O66" si="0">0.5*0.0765*0.000133*0.35*30429.57*(G3*2.24)^3</f>
         <v>0.74600601341764339</v>
       </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="1">O3*0.5</f>
+        <v>0.37300300670882169</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -4312,6 +4319,10 @@
         <f t="shared" si="0"/>
         <v>0.45889695099449318</v>
       </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>0.22944847549724659</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -4354,6 +4365,10 @@
         <f t="shared" si="0"/>
         <v>0.34819719829755691</v>
       </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>0.17409859914877845</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -4396,6 +4411,10 @@
         <f t="shared" si="0"/>
         <v>0.27801176230025965</v>
       </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>0.13900588115012982</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -4438,6 +4457,10 @@
         <f t="shared" si="0"/>
         <v>0.16723649817583572</v>
       </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>8.3618249087917859E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -4480,6 +4503,10 @@
         <f t="shared" si="0"/>
         <v>4.1768780736934257E-3</v>
       </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>2.0884390368467128E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -4522,6 +4549,10 @@
         <f t="shared" si="0"/>
         <v>0.11881601322561187</v>
       </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>5.9408006612805937E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -4564,6 +4595,10 @@
         <f t="shared" si="0"/>
         <v>0.40100404463643996</v>
       </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0.20050202231821998</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -4606,6 +4641,10 @@
         <f t="shared" si="0"/>
         <v>0.15963602941395097</v>
       </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>7.9818014706975485E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -4648,6 +4687,10 @@
         <f t="shared" si="0"/>
         <v>0.11881601322561187</v>
       </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>5.9408006612805937E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -4690,6 +4733,10 @@
         <f t="shared" si="0"/>
         <v>0.19147749328875519</v>
       </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>9.5738746644377593E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -4732,6 +4779,10 @@
         <f t="shared" si="0"/>
         <v>0.97532325736147352</v>
       </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>0.48766162868073676</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -4774,6 +4825,10 @@
         <f t="shared" si="0"/>
         <v>2.4943129595929836</v>
       </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>1.2471564797964918</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -4816,8 +4871,12 @@
         <f t="shared" si="0"/>
         <v>4.0463602250597228</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>2.0231801125298614</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43600.3125</v>
       </c>
@@ -4858,8 +4917,12 @@
         <f t="shared" si="0"/>
         <v>5.6396074997047423</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>2.8198037498523711</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43600.333333333336</v>
       </c>
@@ -4900,8 +4963,12 @@
         <f t="shared" si="0"/>
         <v>1.9343853723987259</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>0.96719268619936294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43600.354166666664</v>
       </c>
@@ -4942,8 +5009,12 @@
         <f t="shared" si="0"/>
         <v>2.2240940984020772</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>1.1120470492010386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43600.375</v>
       </c>
@@ -4984,8 +5055,12 @@
         <f t="shared" si="0"/>
         <v>3.732022594432892</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>1.866011297216446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43600.395833333336</v>
       </c>
@@ -5026,8 +5101,12 @@
         <f t="shared" si="0"/>
         <v>4.0463602250597228</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>2.0231801125298614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43600.416666666664</v>
       </c>
@@ -5068,8 +5147,12 @@
         <f t="shared" si="0"/>
         <v>5.5594247160859496</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>2.7797123580429748</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43600.4375</v>
       </c>
@@ -5110,8 +5193,12 @@
         <f t="shared" si="0"/>
         <v>5.4800055722257834</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>2.7400027861128917</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43600.458333333336</v>
       </c>
@@ -5152,8 +5239,12 @@
         <f t="shared" si="0"/>
         <v>4.5153854507475639</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>2.257692725373782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43600.479166666664</v>
       </c>
@@ -5194,8 +5285,12 @@
         <f t="shared" si="0"/>
         <v>3.6109936092113899</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>1.8054968046056949</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43600.5</v>
       </c>
@@ -5236,8 +5331,12 @@
         <f t="shared" si="0"/>
         <v>2.0144189600519158</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>1.0072094800259579</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43600.520833333336</v>
       </c>
@@ -5278,8 +5377,12 @@
         <f t="shared" si="0"/>
         <v>4.3778706158087521</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>2.1889353079043761</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43600.541666666664</v>
       </c>
@@ -5320,8 +5423,12 @@
         <f t="shared" si="0"/>
         <v>1.9343853723987259</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>0.96719268619936294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43600.5625</v>
       </c>
@@ -5362,8 +5469,12 @@
         <f t="shared" si="0"/>
         <v>0.32362797206031613</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>0.16181398603015806</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43600.583333333336</v>
       </c>
@@ -5404,8 +5515,12 @@
         <f t="shared" si="0"/>
         <v>1.3378919854066857</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>0.66894599270334287</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43600.604166666664</v>
       </c>
@@ -5446,8 +5561,12 @@
         <f t="shared" si="0"/>
         <v>0.44393411805256006</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>0.22196705902628003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43600.625</v>
       </c>
@@ -5488,8 +5607,12 @@
         <f t="shared" si="0"/>
         <v>0.22729426844291056</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>0.11364713422145528</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43600.645833333336</v>
       </c>
@@ -5530,8 +5653,12 @@
         <f t="shared" si="0"/>
         <v>0.42930012519807281</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33">
+        <f t="shared" si="1"/>
+        <v>0.21465006259903641</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43600.666666666664</v>
       </c>
@@ -5572,8 +5699,12 @@
         <f t="shared" si="0"/>
         <v>1.2473897126733284</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34">
+        <f t="shared" si="1"/>
+        <v>0.62369485633666422</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43600.6875</v>
       </c>
@@ -5614,8 +5745,12 @@
         <f t="shared" si="0"/>
         <v>0.72528482516664994</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P35">
+        <f t="shared" si="1"/>
+        <v>0.36264241258332497</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43600.708333333336</v>
       </c>
@@ -5656,8 +5791,12 @@
         <f t="shared" si="0"/>
         <v>2.1884307819553965E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36">
+        <f t="shared" si="1"/>
+        <v>1.0942153909776983E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43600.729166666664</v>
       </c>
@@ -5698,8 +5837,12 @@
         <f t="shared" si="0"/>
         <v>7.4092543406659769E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37">
+        <f t="shared" si="1"/>
+        <v>3.7046271703329884E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43600.75</v>
       </c>
@@ -5740,8 +5883,12 @@
         <f t="shared" si="0"/>
         <v>0.13822305905307003</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38">
+        <f t="shared" si="1"/>
+        <v>6.9111529526535015E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43600.770833333336</v>
       </c>
@@ -5782,8 +5929,12 @@
         <f t="shared" si="0"/>
         <v>5.9274034725327815E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39">
+        <f t="shared" si="1"/>
+        <v>2.9637017362663907E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43600.791666666664</v>
       </c>
@@ -5824,8 +5975,12 @@
         <f t="shared" si="0"/>
         <v>5.9274034725327815E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P40">
+        <f t="shared" si="1"/>
+        <v>2.9637017362663907E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43600.8125</v>
       </c>
@@ -5866,8 +6021,12 @@
         <f t="shared" si="0"/>
         <v>7.1643902681434307E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P41">
+        <f t="shared" si="1"/>
+        <v>3.5821951340717154E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43600.833333333336</v>
       </c>
@@ -5908,8 +6067,12 @@
         <f t="shared" si="0"/>
         <v>6.734644990901055E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P42">
+        <f t="shared" si="1"/>
+        <v>3.3673224954505275E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43600.854166666664</v>
       </c>
@@ -5950,8 +6113,12 @@
         <f t="shared" si="0"/>
         <v>2.1884307819553965E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43">
+        <f t="shared" si="1"/>
+        <v>1.0942153909776983E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43600.875</v>
       </c>
@@ -5992,8 +6159,12 @@
         <f t="shared" si="0"/>
         <v>2.4943129595929839E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P44">
+        <f t="shared" si="1"/>
+        <v>1.2471564797964919E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43600.895833333336</v>
       </c>
@@ -6034,8 +6205,12 @@
         <f t="shared" si="0"/>
         <v>1.0788153225120864</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P45">
+        <f t="shared" si="1"/>
+        <v>0.53940766125604322</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43600.916666666664</v>
       </c>
@@ -6076,8 +6251,12 @@
         <f t="shared" si="0"/>
         <v>1.8141620453914684E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P46">
+        <f t="shared" si="1"/>
+        <v>9.0708102269573421E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43600.9375</v>
       </c>
@@ -6118,8 +6297,12 @@
         <f t="shared" si="0"/>
         <v>2.841178355536382E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P47">
+        <f t="shared" si="1"/>
+        <v>1.420589177768191E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43600.958333333336</v>
       </c>
@@ -6160,8 +6343,12 @@
         <f t="shared" si="0"/>
         <v>2.0552505465396284E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P48">
+        <f t="shared" si="1"/>
+        <v>1.0276252732698142E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43600.979166666664</v>
       </c>
@@ -6202,8 +6389,12 @@
         <f t="shared" si="0"/>
         <v>1.1986221187419117E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P49">
+        <f t="shared" si="1"/>
+        <v>5.9931105937095584E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43601</v>
       </c>
@@ -6244,8 +6435,12 @@
         <f t="shared" si="0"/>
         <v>2.3934686661094398E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P50">
+        <f t="shared" si="1"/>
+        <v>1.1967343330547199E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43601.020833333336</v>
       </c>
@@ -6286,8 +6481,12 @@
         <f t="shared" si="0"/>
         <v>8.0779567481193554E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P51">
+        <f t="shared" si="1"/>
+        <v>4.0389783740596777E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43601.041666666664</v>
       </c>
@@ -6328,8 +6527,12 @@
         <f t="shared" si="0"/>
         <v>2.841178355536382E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P52">
+        <f t="shared" si="1"/>
+        <v>1.420589177768191E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43601.0625</v>
       </c>
@@ -6370,8 +6573,12 @@
         <f t="shared" si="0"/>
         <v>4.8717049992050461E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P53">
+        <f t="shared" si="1"/>
+        <v>2.435852499602523E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43601.083333333336</v>
       </c>
@@ -6412,8 +6619,12 @@
         <f t="shared" si="0"/>
         <v>2.3934686661094398E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P54">
+        <f t="shared" si="1"/>
+        <v>1.1967343330547199E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43601.104166666664</v>
       </c>
@@ -6454,8 +6665,12 @@
         <f t="shared" si="0"/>
         <v>0.5387715992720844</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P55">
+        <f t="shared" si="1"/>
+        <v>0.2693857996360422</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43601.125</v>
       </c>
@@ -6496,8 +6711,12 @@
         <f t="shared" si="0"/>
         <v>2.0887435184091638E-4</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P56">
+        <f t="shared" si="1"/>
+        <v>1.0443717592045819E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43601.145833333336</v>
       </c>
@@ -6538,8 +6757,12 @@
         <f t="shared" si="0"/>
         <v>0.10131623990534246</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P57">
+        <f t="shared" si="1"/>
+        <v>5.0658119952671228E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43601.166666666664</v>
       </c>
@@ -6580,8 +6803,12 @@
         <f t="shared" si="0"/>
         <v>0.17507446255643172</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P58">
+        <f t="shared" si="1"/>
+        <v>8.753723127821586E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43601.1875</v>
       </c>
@@ -6622,8 +6849,12 @@
         <f t="shared" si="0"/>
         <v>0.19147749328875519</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P59">
+        <f t="shared" si="1"/>
+        <v>9.5738746644377593E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43601.208333333336</v>
       </c>
@@ -6664,8 +6895,12 @@
         <f t="shared" si="0"/>
         <v>2.0552505465396284E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P60">
+        <f t="shared" si="1"/>
+        <v>1.0276252732698142E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43601.229166666664</v>
       </c>
@@ -6706,8 +6941,12 @@
         <f t="shared" si="0"/>
         <v>0.15226940249202803</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P61">
+        <f t="shared" si="1"/>
+        <v>7.6134701246014014E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43601.25</v>
       </c>
@@ -6748,8 +6987,12 @@
         <f t="shared" si="0"/>
         <v>0.42930012519807281</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P62">
+        <f t="shared" si="1"/>
+        <v>0.21465006259903641</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43601.270833333336</v>
       </c>
@@ -6790,8 +7033,12 @@
         <f t="shared" si="0"/>
         <v>0.17507446255643172</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P63">
+        <f t="shared" si="1"/>
+        <v>8.753723127821586E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43601.291666666664</v>
       </c>
@@ -6832,8 +7079,12 @@
         <f t="shared" si="0"/>
         <v>4.5116859997637926E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P64">
+        <f t="shared" si="1"/>
+        <v>2.2558429998818963E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43601.3125</v>
       </c>
@@ -6874,8 +7125,12 @@
         <f t="shared" si="0"/>
         <v>0.30024257013788214</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P65">
+        <f t="shared" si="1"/>
+        <v>0.15012128506894107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43601.333333333336</v>
       </c>
@@ -6916,8 +7171,12 @@
         <f t="shared" si="0"/>
         <v>0.26732019671637924</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P66">
+        <f t="shared" si="1"/>
+        <v>0.13366009835818962</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43601.354166666664</v>
       </c>
@@ -6955,11 +7214,15 @@
         <v>57.6</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O130" si="1">0.5*0.0765*0.000133*0.35*30429.57*(G67*2.24)^3</f>
+        <f t="shared" ref="O67:O130" si="2">0.5*0.0765*0.000133*0.35*30429.57*(G67*2.24)^3</f>
         <v>1.7807342325762985</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P67">
+        <f t="shared" ref="P67:P130" si="3">O67*0.5</f>
+        <v>0.89036711628814924</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43601.375</v>
       </c>
@@ -6997,11 +7260,15 @@
         <v>53.3</v>
       </c>
       <c r="O68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0552505465396287</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P68">
+        <f t="shared" si="3"/>
+        <v>1.0276252732698143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43601.395833333336</v>
       </c>
@@ -7039,11 +7306,15 @@
         <v>49.8</v>
       </c>
       <c r="O69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3089992534155108</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P69">
+        <f t="shared" si="3"/>
+        <v>3.1544996267077554</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43601.416666666664</v>
       </c>
@@ -7081,11 +7352,15 @@
         <v>46.6</v>
       </c>
       <c r="O70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9741317865978656</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P70">
+        <f t="shared" si="3"/>
+        <v>0.98706589329893279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43601.4375</v>
       </c>
@@ -7123,11 +7398,15 @@
         <v>41.8</v>
       </c>
       <c r="O71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0144189600519158</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P71">
+        <f t="shared" si="3"/>
+        <v>1.0072094800259579</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43601.458333333336</v>
       </c>
@@ -7165,11 +7444,15 @@
         <v>41.5</v>
       </c>
       <c r="O72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83283684747097486</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P72">
+        <f t="shared" si="3"/>
+        <v>0.41641842373548743</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43601.479166666664</v>
       </c>
@@ -7207,11 +7490,15 @@
         <v>39.299999999999997</v>
       </c>
       <c r="O73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4982776484273894</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P73">
+        <f t="shared" si="3"/>
+        <v>0.74913882421369471</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43601.5</v>
       </c>
@@ -7249,11 +7536,15 @@
         <v>36</v>
       </c>
       <c r="O74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.60896312490063076</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P74">
+        <f t="shared" si="3"/>
+        <v>0.30448156245031538</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43601.520833333336</v>
       </c>
@@ -7291,11 +7582,15 @@
         <v>34.1</v>
       </c>
       <c r="O75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.60896312490063076</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P75">
+        <f t="shared" si="3"/>
+        <v>0.30448156245031538</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43601.541666666664</v>
       </c>
@@ -7333,11 +7628,15 @@
         <v>32.700000000000003</v>
       </c>
       <c r="O76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9741317865978656</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P76">
+        <f t="shared" si="3"/>
+        <v>0.98706589329893279</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43601.5625</v>
       </c>
@@ -7375,11 +7674,15 @@
         <v>29.7</v>
       </c>
       <c r="O77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0552505465396287</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P77">
+        <f t="shared" si="3"/>
+        <v>1.0276252732698143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43601.583333333336</v>
       </c>
@@ -7417,11 +7720,15 @@
         <v>28.3</v>
       </c>
       <c r="O78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66543044858329159</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P78">
+        <f t="shared" si="3"/>
+        <v>0.33271522429164579</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43601.604166666664</v>
       </c>
@@ -7459,11 +7766,15 @@
         <v>27.6</v>
       </c>
       <c r="O79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27801176230025965</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P79">
+        <f t="shared" si="3"/>
+        <v>0.13900588115012982</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43601.625</v>
       </c>
@@ -7501,11 +7812,15 @@
         <v>27</v>
       </c>
       <c r="O80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5889769499352934E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P80">
+        <f t="shared" si="3"/>
+        <v>4.7944884749676467E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43601.645833333336</v>
       </c>
@@ -7543,11 +7858,15 @@
         <v>25.6</v>
       </c>
       <c r="O81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.0660603145831242E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P81">
+        <f t="shared" si="3"/>
+        <v>4.5330301572915621E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43601.666666666664</v>
       </c>
@@ -7585,11 +7904,15 @@
         <v>26.3</v>
       </c>
       <c r="O82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.45889695099449318</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P82">
+        <f t="shared" si="3"/>
+        <v>0.22944847549724659</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43601.6875</v>
       </c>
@@ -7627,11 +7950,15 @@
         <v>26.8</v>
       </c>
       <c r="O83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28898466884784413</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P83">
+        <f t="shared" si="3"/>
+        <v>0.14449233442392206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43601.708333333336</v>
       </c>
@@ -7669,11 +7996,15 @@
         <v>27.7</v>
       </c>
       <c r="O84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26732019671637924</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P84">
+        <f t="shared" si="3"/>
+        <v>0.13366009835818962</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43601.729166666664</v>
       </c>
@@ -7711,11 +8042,15 @@
         <v>28.2</v>
       </c>
       <c r="O85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6442004372317028E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P85">
+        <f t="shared" si="3"/>
+        <v>8.2210021861585138E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43601.75</v>
       </c>
@@ -7753,11 +8088,15 @@
         <v>30</v>
       </c>
       <c r="O86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25690631831745359</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P86">
+        <f t="shared" si="3"/>
+        <v>0.12845315915872679</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43601.770833333336</v>
       </c>
@@ -7795,11 +8134,15 @@
         <v>33.700000000000003</v>
       </c>
       <c r="O87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0703135883253483E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P87">
+        <f t="shared" si="3"/>
+        <v>5.3515679416267416E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43601.791666666664</v>
       </c>
@@ -7837,11 +8180,15 @@
         <v>39.5</v>
       </c>
       <c r="O88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.670994814727331E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P88">
+        <f t="shared" si="3"/>
+        <v>8.3549740736366552E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43601.8125</v>
       </c>
@@ -7879,11 +8226,15 @@
         <v>45.9</v>
       </c>
       <c r="O89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8416831171474439E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P89">
+        <f t="shared" si="3"/>
+        <v>2.420841558573722E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43601.833333333336</v>
       </c>
@@ -7921,11 +8272,15 @@
         <v>50.1</v>
       </c>
       <c r="O90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8141620453914684E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P90">
+        <f t="shared" si="3"/>
+        <v>9.0708102269573421E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43601.854166666664</v>
       </c>
@@ -7963,11 +8318,15 @@
         <v>54.2</v>
       </c>
       <c r="O91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1884307819553965E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P91">
+        <f t="shared" si="3"/>
+        <v>1.0942153909776983E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43601.875</v>
       </c>
@@ -8005,11 +8364,15 @@
         <v>58.3</v>
       </c>
       <c r="O92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1986221187419117E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P92">
+        <f t="shared" si="3"/>
+        <v>5.9931105937095584E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43601.895833333336</v>
       </c>
@@ -8047,11 +8410,15 @@
         <v>60</v>
       </c>
       <c r="O93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1986221187419117E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P93">
+        <f t="shared" si="3"/>
+        <v>5.9931105937095584E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43601.916666666664</v>
       </c>
@@ -8089,11 +8456,15 @@
         <v>60.6</v>
       </c>
       <c r="O94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8717049992050461E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P94">
+        <f t="shared" si="3"/>
+        <v>2.435852499602523E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43601.9375</v>
       </c>
@@ -8131,11 +8502,15 @@
         <v>60.2</v>
       </c>
       <c r="O95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3415024589547405E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P95">
+        <f t="shared" si="3"/>
+        <v>1.6707512294773703E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43601.958333333336</v>
       </c>
@@ -8173,11 +8548,15 @@
         <v>60.7</v>
       </c>
       <c r="O96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.084580916559165E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P96">
+        <f t="shared" si="3"/>
+        <v>1.5422904582795825E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>43601.979166666664</v>
       </c>
@@ -8215,11 +8594,15 @@
         <v>61.5</v>
       </c>
       <c r="O97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3367958517818648E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P97">
+        <f t="shared" si="3"/>
+        <v>6.6839792589093242E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>43602</v>
       </c>
@@ -8257,11 +8640,15 @@
         <v>62.6</v>
       </c>
       <c r="O98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1768780736934257E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P98">
+        <f t="shared" si="3"/>
+        <v>2.0884390368467128E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>43602.020833333336</v>
       </c>
@@ -8299,11 +8686,15 @@
         <v>64</v>
       </c>
       <c r="O99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5491764756570007E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P99">
+        <f t="shared" si="3"/>
+        <v>2.7745882378285004E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>43602.041666666664</v>
       </c>
@@ -8341,11 +8732,15 @@
         <v>64.900000000000006</v>
       </c>
       <c r="O100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19147749328875519</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P100">
+        <f t="shared" si="3"/>
+        <v>9.5738746644377593E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>43602.0625</v>
       </c>
@@ -8383,11 +8778,15 @@
         <v>65.2</v>
       </c>
       <c r="O101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10131623990534246</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P101">
+        <f t="shared" si="3"/>
+        <v>5.0658119952671228E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>43602.083333333336</v>
       </c>
@@ -8425,11 +8824,15 @@
         <v>65.5</v>
       </c>
       <c r="O102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8973639993640369E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P102">
+        <f t="shared" si="3"/>
+        <v>1.9486819996820184E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>43602.104166666664</v>
       </c>
@@ -8467,11 +8870,15 @@
         <v>66.3</v>
       </c>
       <c r="O103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5625087066027866E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P103">
+        <f t="shared" si="3"/>
+        <v>4.2812543533013933E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43602.125</v>
       </c>
@@ -8509,11 +8916,15 @@
         <v>67.5</v>
       </c>
       <c r="O104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3378919854066854E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P104">
+        <f t="shared" si="3"/>
+        <v>6.689459927033427E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>43602.145833333336</v>
       </c>
@@ -8551,11 +8962,15 @@
         <v>67.900000000000006</v>
       </c>
       <c r="O105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8717049992050461E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P105">
+        <f t="shared" si="3"/>
+        <v>2.435852499602523E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>43602.166666666664</v>
       </c>
@@ -8593,11 +9008,15 @@
         <v>69.900000000000006</v>
       </c>
       <c r="O106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9274034725327815E-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P106">
+        <f t="shared" si="3"/>
+        <v>2.9637017362663907E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>43602.1875</v>
       </c>
@@ -8635,11 +9054,15 @@
         <v>70.7</v>
       </c>
       <c r="O107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3367958517818648E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P107">
+        <f t="shared" si="3"/>
+        <v>6.6839792589093242E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>43602.208333333336</v>
       </c>
@@ -8677,11 +9100,15 @@
         <v>70.599999999999994</v>
       </c>
       <c r="O108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0703135883253483E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P108">
+        <f t="shared" si="3"/>
+        <v>5.3515679416267416E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>43602.229166666664</v>
       </c>
@@ -8719,11 +9146,15 @@
         <v>70.599999999999994</v>
       </c>
       <c r="O109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5491764756570007E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P109">
+        <f t="shared" si="3"/>
+        <v>2.7745882378285004E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>43602.25</v>
       </c>
@@ -8761,11 +9192,15 @@
         <v>70.099999999999994</v>
       </c>
       <c r="O110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10131623990534246</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P110">
+        <f t="shared" si="3"/>
+        <v>5.0658119952671228E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>43602.270833333336</v>
       </c>
@@ -8803,11 +9238,15 @@
         <v>70.599999999999994</v>
       </c>
       <c r="O111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13822305905307003</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P111">
+        <f t="shared" si="3"/>
+        <v>6.9111529526535015E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>43602.291666666664</v>
       </c>
@@ -8845,11 +9284,15 @@
         <v>66.5</v>
       </c>
       <c r="O112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9274034725327815E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P112">
+        <f t="shared" si="3"/>
+        <v>2.9637017362663907E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>43602.3125</v>
       </c>
@@ -8887,11 +9330,15 @@
         <v>61.7</v>
       </c>
       <c r="O113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6396074997047407E-3</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P113">
+        <f t="shared" si="3"/>
+        <v>2.8198037498523704E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>43602.333333333336</v>
       </c>
@@ -8929,11 +9376,15 @@
         <v>58.8</v>
       </c>
       <c r="O114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3415024589547405E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P114">
+        <f t="shared" si="3"/>
+        <v>1.6707512294773703E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>43602.354166666664</v>
       </c>
@@ -8971,11 +9422,15 @@
         <v>54</v>
       </c>
       <c r="O115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17507446255643172</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P115">
+        <f t="shared" si="3"/>
+        <v>8.753723127821586E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>43602.375</v>
       </c>
@@ -9013,11 +9468,15 @@
         <v>48.5</v>
       </c>
       <c r="O116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4842393539419167E-3</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P116">
+        <f t="shared" si="3"/>
+        <v>3.2421196769709584E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>43602.395833333336</v>
       </c>
@@ -9055,11 +9514,15 @@
         <v>44.2</v>
       </c>
       <c r="O117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3415024589547405E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P117">
+        <f t="shared" si="3"/>
+        <v>1.6707512294773703E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>43602.416666666664</v>
       </c>
@@ -9097,11 +9560,15 @@
         <v>38.4</v>
       </c>
       <c r="O118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78862490667693885</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P118">
+        <f t="shared" si="3"/>
+        <v>0.39431245333846943</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>43602.4375</v>
       </c>
@@ -9139,11 +9606,15 @@
         <v>37.700000000000003</v>
       </c>
       <c r="O119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25690631831745359</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P119">
+        <f t="shared" si="3"/>
+        <v>0.12845315915872679</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>43602.458333333336</v>
       </c>
@@ -9181,11 +9652,15 @@
         <v>39.4</v>
       </c>
       <c r="O120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9954503676743871E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P120">
+        <f t="shared" si="3"/>
+        <v>9.9772518383719356E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>43602.479166666664</v>
       </c>
@@ -9223,11 +9698,15 @@
         <v>48.1</v>
       </c>
       <c r="O121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.084580916559165E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P121">
+        <f t="shared" si="3"/>
+        <v>1.5422904582795825E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>43602.5</v>
       </c>
@@ -9265,11 +9744,15 @@
         <v>60.8</v>
       </c>
       <c r="O122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.0660603145831242E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P122">
+        <f t="shared" si="3"/>
+        <v>4.5330301572915621E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>43602.520833333336</v>
       </c>
@@ -9307,11 +9790,15 @@
         <v>66.7</v>
       </c>
       <c r="O123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9274034725327815E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P123">
+        <f t="shared" si="3"/>
+        <v>2.9637017362663907E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>43602.541666666664</v>
       </c>
@@ -9349,11 +9836,15 @@
         <v>68.5</v>
       </c>
       <c r="O124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8717049992050461E-3</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P124">
+        <f t="shared" si="3"/>
+        <v>2.435852499602523E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>43602.5625</v>
       </c>
@@ -9391,11 +9882,15 @@
         <v>71.8</v>
       </c>
       <c r="O125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.084580916559165E-2</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P125">
+        <f t="shared" si="3"/>
+        <v>1.5422904582795825E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>43602.583333333336</v>
       </c>
@@ -9433,11 +9928,15 @@
         <v>71.7</v>
       </c>
       <c r="O126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13822305905307003</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P126">
+        <f t="shared" si="3"/>
+        <v>6.9111529526535015E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>43602.604166666664</v>
       </c>
@@ -9475,11 +9974,15 @@
         <v>68.3</v>
       </c>
       <c r="O127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21795460099630962</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P127">
+        <f t="shared" si="3"/>
+        <v>0.10897730049815481</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>43602.625</v>
       </c>
@@ -9517,11 +10020,15 @@
         <v>63.6</v>
       </c>
       <c r="O128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16723649817583572</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P128">
+        <f t="shared" si="3"/>
+        <v>8.3618249087917859E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>43602.645833333336</v>
       </c>
@@ -9559,11 +10066,15 @@
         <v>64.3</v>
       </c>
       <c r="O129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6442004372317028E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P129">
+        <f t="shared" si="3"/>
+        <v>8.2210021861585138E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>43602.666666666664</v>
       </c>
@@ -9601,11 +10112,15 @@
         <v>66.599999999999994</v>
       </c>
       <c r="O130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15226940249202803</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P130">
+        <f t="shared" si="3"/>
+        <v>7.6134701246014014E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>43602.6875</v>
       </c>
@@ -9643,11 +10158,15 @@
         <v>62</v>
       </c>
       <c r="O131">
-        <f t="shared" ref="O131:O194" si="2">0.5*0.0765*0.000133*0.35*30429.57*(G131*2.24)^3</f>
+        <f t="shared" ref="O131:O194" si="4">0.5*0.0765*0.000133*0.35*30429.57*(G131*2.24)^3</f>
         <v>5.1873914831535334E-2</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P131">
+        <f t="shared" ref="P131:P194" si="5">O131*0.5</f>
+        <v>2.5936957415767667E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>43602.708333333336</v>
       </c>
@@ -9685,11 +10204,15 @@
         <v>53.3</v>
       </c>
       <c r="O132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.3367958517818648E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P132">
+        <f t="shared" si="5"/>
+        <v>6.6839792589093242E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>43602.729166666664</v>
       </c>
@@ -9727,11 +10250,15 @@
         <v>50.5</v>
       </c>
       <c r="O133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.8416831171474439E-2</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P133">
+        <f t="shared" si="5"/>
+        <v>2.420841558573722E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>43602.75</v>
       </c>
@@ -9769,11 +10296,15 @@
         <v>52</v>
       </c>
       <c r="O134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3934686661094398E-2</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P134">
+        <f t="shared" si="5"/>
+        <v>1.1967343330547199E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>43602.770833333336</v>
       </c>
@@ -9811,11 +10342,15 @@
         <v>56.2</v>
       </c>
       <c r="O135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.14513296363131747</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P135">
+        <f t="shared" si="5"/>
+        <v>7.2566481815658737E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>43602.791666666664</v>
       </c>
@@ -9853,11 +10388,15 @@
         <v>61.4</v>
       </c>
       <c r="O136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.15963602941395097</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P136">
+        <f t="shared" si="5"/>
+        <v>7.9818014706975485E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>43602.8125</v>
       </c>
@@ -9895,11 +10434,15 @@
         <v>65.3</v>
       </c>
       <c r="O137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.1884307819553965E-2</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P137">
+        <f t="shared" si="5"/>
+        <v>1.0942153909776983E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>43602.833333333336</v>
       </c>
@@ -9937,11 +10480,15 @@
         <v>69.8</v>
       </c>
       <c r="O138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.084580916559165E-2</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P138">
+        <f t="shared" si="5"/>
+        <v>1.5422904582795825E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>43602.854166666664</v>
       </c>
@@ -9979,11 +10526,15 @@
         <v>71.900000000000006</v>
       </c>
       <c r="O139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.13153603497853622</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P139">
+        <f t="shared" si="5"/>
+        <v>6.576801748926811E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>43602.875</v>
       </c>
@@ -10021,11 +10572,15 @@
         <v>74.3</v>
       </c>
       <c r="O140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.6396074997047407E-3</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P140">
+        <f t="shared" si="5"/>
+        <v>2.8198037498523704E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>43602.895833333336</v>
       </c>
@@ -10063,11 +10618,15 @@
         <v>75.400000000000006</v>
       </c>
       <c r="O141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.8973639993640369E-2</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P141">
+        <f t="shared" si="5"/>
+        <v>1.9486819996820184E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>43602.916666666664</v>
       </c>
@@ -10105,11 +10664,15 @@
         <v>76.8</v>
       </c>
       <c r="O142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.6442004372317028E-2</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P142">
+        <f t="shared" si="5"/>
+        <v>8.2210021861585138E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>43602.9375</v>
       </c>
@@ -10147,11 +10710,15 @@
         <v>76.8</v>
       </c>
       <c r="O143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0660603145831242E-2</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P143">
+        <f t="shared" si="5"/>
+        <v>4.5330301572915621E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>43602.958333333336</v>
       </c>
@@ -10189,11 +10756,15 @@
         <v>62.4</v>
       </c>
       <c r="O144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.6003989375838503</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P144">
+        <f t="shared" si="5"/>
+        <v>0.80019946879192516</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>43602.979166666664</v>
       </c>
@@ -10231,11 +10802,15 @@
         <v>53.6</v>
       </c>
       <c r="O145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.22729426844291056</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P145">
+        <f t="shared" si="5"/>
+        <v>0.11364713422145528</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>43603</v>
       </c>
@@ -10273,11 +10848,15 @@
         <v>53</v>
       </c>
       <c r="O146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.41499131865228267</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P146">
+        <f t="shared" si="5"/>
+        <v>0.20749565932614134</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>43603.020833333336</v>
       </c>
@@ -10315,11 +10894,15 @@
         <v>54.4</v>
       </c>
       <c r="O147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.3415024589547405E-2</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P147">
+        <f t="shared" si="5"/>
+        <v>1.6707512294773703E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>43603.041666666664</v>
       </c>
@@ -10357,11 +10940,15 @@
         <v>58.4</v>
       </c>
       <c r="O148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.34819719829755691</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P148">
+        <f t="shared" si="5"/>
+        <v>0.17409859914877845</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>43603.0625</v>
       </c>
@@ -10399,11 +10986,15 @@
         <v>61.6</v>
       </c>
       <c r="O149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.48982375225569658</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P149">
+        <f t="shared" si="5"/>
+        <v>0.24491187612784829</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>43603.083333333336</v>
       </c>
@@ -10441,11 +11032,15 @@
         <v>66.5</v>
       </c>
       <c r="O150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.74600601341764339</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P150">
+        <f t="shared" si="5"/>
+        <v>0.37300300670882169</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>43603.104166666664</v>
       </c>
@@ -10483,11 +11078,15 @@
         <v>68.5</v>
       </c>
       <c r="O151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.734644990901055E-2</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P151">
+        <f t="shared" si="5"/>
+        <v>3.3673224954505275E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>43603.125</v>
       </c>
@@ -10525,11 +11124,15 @@
         <v>70.5</v>
       </c>
       <c r="O152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17507446255643172</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P152">
+        <f t="shared" si="5"/>
+        <v>8.753723127821586E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>43603.145833333336</v>
       </c>
@@ -10567,11 +11170,15 @@
         <v>73</v>
       </c>
       <c r="O153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.83283684747097486</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P153">
+        <f t="shared" si="5"/>
+        <v>0.41641842373548743</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>43603.166666666664</v>
       </c>
@@ -10609,11 +11216,15 @@
         <v>70.900000000000006</v>
       </c>
       <c r="O154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.000545901031733</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P154">
+        <f t="shared" si="5"/>
+        <v>0.50027295051586651</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>43603.1875</v>
       </c>
@@ -10651,11 +11262,15 @@
         <v>71.8</v>
       </c>
       <c r="O155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.37397947907959983</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P155">
+        <f t="shared" si="5"/>
+        <v>0.18698973953979992</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>43603.208333333336</v>
       </c>
@@ -10693,11 +11308,15 @@
         <v>75.7</v>
       </c>
       <c r="O156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.15963602941395097</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P156">
+        <f t="shared" si="5"/>
+        <v>7.9818014706975485E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>43603.229166666664</v>
       </c>
@@ -10735,11 +11354,15 @@
         <v>77.099999999999994</v>
       </c>
       <c r="O157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.11881601322561187</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P157">
+        <f t="shared" si="5"/>
+        <v>5.9408006612805937E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>43603.25</v>
       </c>
@@ -10777,11 +11400,15 @@
         <v>77.400000000000006</v>
       </c>
       <c r="O158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.11881601322561187</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P158">
+        <f t="shared" si="5"/>
+        <v>5.9408006612805937E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>43603.270833333336</v>
       </c>
@@ -10819,11 +11446,15 @@
         <v>73.8</v>
       </c>
       <c r="O159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.3153603497853623E-4</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P159">
+        <f t="shared" si="5"/>
+        <v>6.5768017489268115E-5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>43603.291666666664</v>
       </c>
@@ -10861,11 +11492,15 @@
         <v>69.400000000000006</v>
       </c>
       <c r="O160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.38733464937179551</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P160">
+        <f t="shared" si="5"/>
+        <v>0.19366732468589776</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>43603.3125</v>
       </c>
@@ -10903,11 +11538,15 @@
         <v>57.5</v>
       </c>
       <c r="O161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.707058219947071</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P161">
+        <f t="shared" si="5"/>
+        <v>0.85352910997353548</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>43603.333333333336</v>
       </c>
@@ -10945,11 +11584,15 @@
         <v>50.3</v>
       </c>
       <c r="O162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.0986771949743641</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P162">
+        <f t="shared" si="5"/>
+        <v>1.5493385974871821</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>43603.354166666664</v>
       </c>
@@ -10987,11 +11630,15 @@
         <v>46.5</v>
       </c>
       <c r="O163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.0966301998397516</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P163">
+        <f t="shared" si="5"/>
+        <v>1.0483150999198758</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>43603.375</v>
       </c>
@@ -11029,11 +11676,15 @@
         <v>43.1</v>
       </c>
       <c r="O164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.6709948147273306</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P164">
+        <f t="shared" si="5"/>
+        <v>0.83549740736366529</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>43603.395833333336</v>
       </c>
@@ -11071,11 +11722,15 @@
         <v>40.299999999999997</v>
       </c>
       <c r="O165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.0193225323859592</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P165">
+        <f t="shared" si="5"/>
+        <v>2.5096612661929796</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>43603.416666666664</v>
       </c>
@@ -11113,11 +11768,15 @@
         <v>37.700000000000003</v>
       </c>
       <c r="O166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.119895291929176</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P166">
+        <f t="shared" si="5"/>
+        <v>6.0599476459645878</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>43603.4375</v>
       </c>
@@ -11155,11 +11814,15 @@
         <v>37.1</v>
       </c>
       <c r="O167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.6305225800966916</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P167">
+        <f t="shared" si="5"/>
+        <v>4.3152612900483458</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>43603.458333333336</v>
       </c>
@@ -11197,11 +11860,15 @@
         <v>34.5</v>
       </c>
       <c r="O168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.0293685282379617</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P168">
+        <f t="shared" si="5"/>
+        <v>3.5146842641189808</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>43603.479166666664</v>
       </c>
@@ -11239,11 +11906,15 @@
         <v>32.1</v>
       </c>
       <c r="O169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.0521038964343035</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P169">
+        <f t="shared" si="5"/>
+        <v>3.0260519482171517</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>43603.5</v>
       </c>
@@ -11281,11 +11952,15 @@
         <v>31.4</v>
       </c>
       <c r="O170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.7807342325762985</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P170">
+        <f t="shared" si="5"/>
+        <v>0.89036711628814924</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>43603.520833333336</v>
       </c>
@@ -11323,11 +11998,15 @@
         <v>31</v>
       </c>
       <c r="O171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.3768424159820993</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P171">
+        <f t="shared" si="5"/>
+        <v>1.6884212079910497</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>43603.541666666664</v>
       </c>
@@ -11365,11 +12044,15 @@
         <v>28.9</v>
       </c>
       <c r="O172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.47419227780262252</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P172">
+        <f t="shared" si="5"/>
+        <v>0.23709613890131126</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>43603.5625</v>
       </c>
@@ -11407,11 +12090,15 @@
         <v>27</v>
       </c>
       <c r="O173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.13153603497853622</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P173">
+        <f t="shared" si="5"/>
+        <v>6.576801748926811E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>43603.583333333336</v>
       </c>
@@ -11449,11 +12136,15 @@
         <v>25.3</v>
       </c>
       <c r="O174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.4183062386263188E-3</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P174">
+        <f t="shared" si="5"/>
+        <v>4.2091531193131594E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>43603.604166666664</v>
       </c>
@@ -11491,11 +12182,15 @@
         <v>24.9</v>
       </c>
       <c r="O175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.000545901031733</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P175">
+        <f t="shared" si="5"/>
+        <v>0.50027295051586651</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>43603.625</v>
       </c>
@@ -11533,11 +12228,15 @@
         <v>24.2</v>
       </c>
       <c r="O176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.4183062386263188E-3</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P176">
+        <f t="shared" si="5"/>
+        <v>4.2091531193131594E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>43603.645833333336</v>
       </c>
@@ -11575,11 +12274,15 @@
         <v>23.9</v>
       </c>
       <c r="O177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4652286106759072</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P177">
+        <f t="shared" si="5"/>
+        <v>0.73261430533795358</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>43603.666666666664</v>
       </c>
@@ -11617,11 +12320,15 @@
         <v>24</v>
       </c>
       <c r="O178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.20004986719798129</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P178">
+        <f t="shared" si="5"/>
+        <v>0.10002493359899065</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>43603.6875</v>
       </c>
@@ -11659,11 +12366,15 @@
         <v>23.8</v>
       </c>
       <c r="O179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.70495093746309279</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P179">
+        <f t="shared" si="5"/>
+        <v>0.35247546873154639</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>43603.708333333336</v>
       </c>
@@ -11701,11 +12412,15 @@
         <v>23.8</v>
       </c>
       <c r="O180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.37397947907959983</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P180">
+        <f t="shared" si="5"/>
+        <v>0.18698973953979992</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>43603.729166666664</v>
       </c>
@@ -11743,11 +12458,15 @@
         <v>25</v>
       </c>
       <c r="O181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.1873914831535334E-2</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P181">
+        <f t="shared" si="5"/>
+        <v>2.5936957415767667E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>43603.75</v>
       </c>
@@ -11785,11 +12504,15 @@
         <v>26.8</v>
       </c>
       <c r="O182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.4842393539419167E-3</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P182">
+        <f t="shared" si="5"/>
+        <v>3.2421196769709584E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>43603.770833333336</v>
       </c>
@@ -11827,11 +12550,15 @@
         <v>30.5</v>
       </c>
       <c r="O183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.3224378516558169E-2</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P183">
+        <f t="shared" si="5"/>
+        <v>3.1612189258279084E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>43603.791666666664</v>
       </c>
@@ -11869,11 +12596,15 @@
         <v>36</v>
       </c>
       <c r="O184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.1873914831535334E-2</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P184">
+        <f t="shared" si="5"/>
+        <v>2.5936957415767667E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>43603.8125</v>
       </c>
@@ -11911,11 +12642,15 @@
         <v>40.799999999999997</v>
       </c>
       <c r="O185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.1873914831535334E-2</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P185">
+        <f t="shared" si="5"/>
+        <v>2.5936957415767667E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>43603.833333333336</v>
       </c>
@@ -11953,11 +12688,15 @@
         <v>46</v>
       </c>
       <c r="O186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.4842393539419167E-3</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P186">
+        <f t="shared" si="5"/>
+        <v>3.2421196769709584E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>43603.854166666664</v>
       </c>
@@ -11995,11 +12734,15 @@
         <v>49.3</v>
       </c>
       <c r="O187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.8717049992050461E-3</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P187">
+        <f t="shared" si="5"/>
+        <v>2.435852499602523E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>43603.875</v>
       </c>
@@ -12037,11 +12780,15 @@
         <v>49.7</v>
       </c>
       <c r="O188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.1768780736934257E-3</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P188">
+        <f t="shared" si="5"/>
+        <v>2.0884390368467128E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>43603.895833333336</v>
       </c>
@@ -12079,11 +12826,15 @@
         <v>50.5</v>
       </c>
       <c r="O189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.8717049992050461E-3</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P189">
+        <f t="shared" si="5"/>
+        <v>2.435852499602523E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>43603.916666666664</v>
       </c>
@@ -12121,11 +12872,15 @@
         <v>55.5</v>
       </c>
       <c r="O190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.1768780736934257E-3</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P190">
+        <f t="shared" si="5"/>
+        <v>2.0884390368467128E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>43603.9375</v>
       </c>
@@ -12163,11 +12918,15 @@
         <v>55.7</v>
       </c>
       <c r="O191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4852001653201484E-2</v>
       </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P191">
+        <f t="shared" si="5"/>
+        <v>7.4260008266007422E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>43603.958333333336</v>
       </c>
@@ -12205,11 +12964,15 @@
         <v>57.7</v>
       </c>
       <c r="O192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.3378919854066854E-3</v>
       </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P192">
+        <f t="shared" si="5"/>
+        <v>6.689459927033427E-4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>43603.979166666664</v>
       </c>
@@ -12247,11 +13010,15 @@
         <v>61</v>
       </c>
       <c r="O193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.3378919854066854E-3</v>
       </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P193">
+        <f t="shared" si="5"/>
+        <v>6.689459927033427E-4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>43604</v>
       </c>
@@ -12289,11 +13056,15 @@
         <v>66.099999999999994</v>
       </c>
       <c r="O194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3934686661094398E-2</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P194">
+        <f t="shared" si="5"/>
+        <v>1.1967343330547199E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>43604.020833333336</v>
       </c>
@@ -12331,11 +13102,15 @@
         <v>68.5</v>
       </c>
       <c r="O195">
-        <f t="shared" ref="O195:O258" si="3">0.5*0.0765*0.000133*0.35*30429.57*(G195*2.24)^3</f>
+        <f t="shared" ref="O195:O258" si="6">0.5*0.0765*0.000133*0.35*30429.57*(G195*2.24)^3</f>
         <v>1.6442004372317028E-2</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P195">
+        <f t="shared" ref="P195:P258" si="7">O195*0.5</f>
+        <v>8.2210021861585138E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>43604.041666666664</v>
       </c>
@@ -12373,11 +13148,15 @@
         <v>69.099999999999994</v>
       </c>
       <c r="O196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.1643902681434307E-2</v>
       </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P196">
+        <f t="shared" si="7"/>
+        <v>3.5821951340717154E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>43604.0625</v>
       </c>
@@ -12415,11 +13194,15 @@
         <v>67.7</v>
       </c>
       <c r="O197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.15226940249202803</v>
       </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P197">
+        <f t="shared" si="7"/>
+        <v>7.6134701246014014E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>43604.083333333336</v>
       </c>
@@ -12457,11 +13240,15 @@
         <v>59.8</v>
       </c>
       <c r="O198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.084580916559165E-2</v>
       </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P198">
+        <f t="shared" si="7"/>
+        <v>1.5422904582795825E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>43604.104166666664</v>
       </c>
@@ -12499,11 +13286,15 @@
         <v>59.1</v>
       </c>
       <c r="O199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.4092543406659769E-3</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P199">
+        <f t="shared" si="7"/>
+        <v>3.7046271703329884E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>43604.125</v>
       </c>
@@ -12541,11 +13332,15 @@
         <v>61.4</v>
       </c>
       <c r="O200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.841178355536382E-2</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P200">
+        <f t="shared" si="7"/>
+        <v>1.420589177768191E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>43604.145833333336</v>
       </c>
@@ -12583,11 +13378,15 @@
         <v>65.3</v>
       </c>
       <c r="O201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.19147749328875519</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P201">
+        <f t="shared" si="7"/>
+        <v>9.5738746644377593E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>43604.166666666664</v>
       </c>
@@ -12625,11 +13424,15 @@
         <v>67.099999999999994</v>
       </c>
       <c r="O202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.17507446255643172</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P202">
+        <f t="shared" si="7"/>
+        <v>8.753723127821586E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>43604.1875</v>
       </c>
@@ -12667,11 +13470,15 @@
         <v>68.599999999999994</v>
       </c>
       <c r="O203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.1970347531276354E-2</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P203">
+        <f t="shared" si="7"/>
+        <v>2.0985173765638177E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>43604.208333333336</v>
       </c>
@@ -12709,11 +13516,15 @@
         <v>69</v>
       </c>
       <c r="O204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.5150488265723556E-3</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P204">
+        <f t="shared" si="7"/>
+        <v>4.7575244132861778E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>43604.229166666664</v>
       </c>
@@ -12751,11 +13562,15 @@
         <v>70.599999999999994</v>
       </c>
       <c r="O205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.5116859997637926E-2</v>
       </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P205">
+        <f t="shared" si="7"/>
+        <v>2.2558429998818963E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>43604.25</v>
       </c>
@@ -12793,11 +13608,15 @@
         <v>70.7</v>
       </c>
       <c r="O206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.1643902681434307E-2</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P206">
+        <f t="shared" si="7"/>
+        <v>3.5821951340717154E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>43604.270833333336</v>
       </c>
@@ -12835,11 +13654,15 @@
         <v>67.2</v>
       </c>
       <c r="O207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.9954503676743871E-2</v>
       </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P207">
+        <f t="shared" si="7"/>
+        <v>9.9772518383719356E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>43604.291666666664</v>
       </c>
@@ -12877,11 +13700,15 @@
         <v>64.400000000000006</v>
       </c>
       <c r="O208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.11277570798972246</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P208">
+        <f t="shared" si="7"/>
+        <v>5.638785399486123E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>43604.3125</v>
       </c>
@@ -12919,11 +13746,15 @@
         <v>62.6</v>
       </c>
       <c r="O209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.22729426844291056</v>
       </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P209">
+        <f t="shared" si="7"/>
+        <v>0.11364713422145528</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>43604.333333333336</v>
       </c>
@@ -12961,11 +13792,15 @@
         <v>61.4</v>
       </c>
       <c r="O210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.31178911994912295</v>
       </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P210">
+        <f t="shared" si="7"/>
+        <v>0.15589455997456148</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>43604.354166666664</v>
       </c>
@@ -13003,11 +13838,15 @@
         <v>57.5</v>
       </c>
       <c r="O211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.52210975921167824</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P211">
+        <f t="shared" si="7"/>
+        <v>0.26105487960583912</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>43604.375</v>
       </c>
@@ -13045,11 +13884,15 @@
         <v>53.1</v>
       </c>
       <c r="O212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.10694366814254919</v>
       </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P212">
+        <f t="shared" si="7"/>
+        <v>5.3471834071274593E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>43604.395833333336</v>
       </c>
@@ -13087,11 +13930,15 @@
         <v>48.9</v>
       </c>
       <c r="O213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.64623653984954843</v>
       </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P213">
+        <f t="shared" si="7"/>
+        <v>0.32311826992477422</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>43604.416666666664</v>
       </c>
@@ -13129,11 +13976,15 @@
         <v>48.8</v>
       </c>
       <c r="O214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.9274034725327815E-2</v>
       </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P214">
+        <f t="shared" si="7"/>
+        <v>2.9637017362663907E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>43604.4375</v>
       </c>
@@ -13171,11 +14022,15 @@
         <v>44.9</v>
       </c>
       <c r="O215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.23689700795946866</v>
       </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P215">
+        <f t="shared" si="7"/>
+        <v>0.11844850397973433</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>43604.458333333336</v>
       </c>
@@ -13213,11 +14068,15 @@
         <v>42.9</v>
       </c>
       <c r="O216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2473897126733284</v>
       </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P216">
+        <f t="shared" si="7"/>
+        <v>0.62369485633666422</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>43604.479166666664</v>
       </c>
@@ -13255,11 +14114,15 @@
         <v>41.5</v>
       </c>
       <c r="O217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.1810483219922268</v>
       </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P217">
+        <f t="shared" si="7"/>
+        <v>1.0905241609961134</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>43604.5</v>
       </c>
@@ -13297,11 +14160,15 @@
         <v>41.2</v>
       </c>
       <c r="O218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.8557261456989576</v>
       </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P218">
+        <f t="shared" si="7"/>
+        <v>1.9278630728494788</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>43604.520833333336</v>
       </c>
@@ -13339,11 +14206,15 @@
         <v>40.200000000000003</v>
       </c>
       <c r="O219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.3962192149056545</v>
       </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P219">
+        <f t="shared" si="7"/>
+        <v>3.1981096074528272</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>43604.541666666664</v>
       </c>
@@ -13381,11 +14252,15 @@
         <v>38.200000000000003</v>
       </c>
       <c r="O220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.23689700795946866</v>
       </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P220">
+        <f t="shared" si="7"/>
+        <v>0.11844850397973433</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>43604.5625</v>
       </c>
@@ -13423,11 +14298,15 @@
         <v>38.200000000000003</v>
       </c>
       <c r="O221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.78862490667693885</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P221">
+        <f t="shared" si="7"/>
+        <v>0.39431245333846943</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>43604.583333333336</v>
       </c>
@@ -13465,11 +14344,15 @@
         <v>38.9</v>
       </c>
       <c r="O222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.6557502331109113</v>
       </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P222">
+        <f t="shared" si="7"/>
+        <v>2.3278751165554556</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>43604.604166666664</v>
       </c>
@@ -13507,11 +14390,15 @@
         <v>38.700000000000003</v>
       </c>
       <c r="O223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.9343853723987259</v>
       </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P223">
+        <f t="shared" si="7"/>
+        <v>0.96719268619936294</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>43604.625</v>
       </c>
@@ -13549,11 +14436,15 @@
         <v>41.3</v>
       </c>
       <c r="O224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.47419227780262252</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P224">
+        <f t="shared" si="7"/>
+        <v>0.23709613890131126</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>43604.645833333336</v>
       </c>
@@ -13591,11 +14482,15 @@
         <v>45.1</v>
       </c>
       <c r="O225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.42930012519807281</v>
       </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P225">
+        <f t="shared" si="7"/>
+        <v>0.21465006259903641</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>43604.666666666664</v>
       </c>
@@ -13633,11 +14528,15 @@
         <v>44.7</v>
       </c>
       <c r="O226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1057844724245602</v>
       </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P226">
+        <f t="shared" si="7"/>
+        <v>0.55289223621228012</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>43604.6875</v>
       </c>
@@ -13675,11 +14574,15 @@
         <v>45.3</v>
       </c>
       <c r="O227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.33576278025021083</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P227">
+        <f t="shared" si="7"/>
+        <v>0.16788139012510542</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>43604.708333333336</v>
       </c>
@@ -13717,11 +14620,15 @@
         <v>49</v>
       </c>
       <c r="O228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.47419227780262252</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P228">
+        <f t="shared" si="7"/>
+        <v>0.23709613890131126</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>43604.729166666664</v>
       </c>
@@ -13759,11 +14666,15 @@
         <v>51.4</v>
       </c>
       <c r="O229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.72528482516664994</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P229">
+        <f t="shared" si="7"/>
+        <v>0.36264241258332497</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>43604.75</v>
       </c>
@@ -13801,11 +14712,15 @@
         <v>57</v>
       </c>
       <c r="O230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2181552199362242</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P230">
+        <f t="shared" si="7"/>
+        <v>0.60907760996811211</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>43604.770833333336</v>
       </c>
@@ -13843,11 +14758,15 @@
         <v>61.2</v>
       </c>
       <c r="O231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.72528482516664994</v>
       </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P231">
+        <f t="shared" si="7"/>
+        <v>0.36264241258332497</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>43604.791666666664</v>
       </c>
@@ -13885,11 +14804,15 @@
         <v>64</v>
       </c>
       <c r="O232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.40100404463643996</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P232">
+        <f t="shared" si="7"/>
+        <v>0.20050202231821998</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>43604.8125</v>
       </c>
@@ -13927,11 +14850,15 @@
         <v>67.099999999999994</v>
       </c>
       <c r="O233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.15226940249202803</v>
       </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P233">
+        <f t="shared" si="7"/>
+        <v>7.6134701246014014E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>43604.833333333336</v>
       </c>
@@ -13969,11 +14896,15 @@
         <v>68.400000000000006</v>
       </c>
       <c r="O234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.19147749328875519</v>
       </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P234">
+        <f t="shared" si="7"/>
+        <v>9.5738746644377593E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>43604.854166666664</v>
       </c>
@@ -14011,11 +14942,15 @@
         <v>69.5</v>
       </c>
       <c r="O235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.3934686661094398E-2</v>
       </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P235">
+        <f t="shared" si="7"/>
+        <v>1.1967343330547199E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>43604.875</v>
       </c>
@@ -14053,11 +14988,15 @@
         <v>70.900000000000006</v>
       </c>
       <c r="O236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.59087631112795702</v>
       </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P236">
+        <f t="shared" si="7"/>
+        <v>0.29543815556397851</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>43604.895833333336</v>
       </c>
@@ -14095,11 +15034,15 @@
         <v>71.7</v>
       </c>
       <c r="O237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.10694366814254919</v>
       </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P237">
+        <f t="shared" si="7"/>
+        <v>5.3471834071274593E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>43604.916666666664</v>
       </c>
@@ -14137,11 +15080,15 @@
         <v>73.599999999999994</v>
       </c>
       <c r="O238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.8141620453914684E-2</v>
       </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P238">
+        <f t="shared" si="7"/>
+        <v>9.0708102269573421E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>43604.9375</v>
       </c>
@@ -14179,11 +15126,15 @@
         <v>75.8</v>
       </c>
       <c r="O239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.670994814727331E-3</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P239">
+        <f t="shared" si="7"/>
+        <v>8.3549740736366552E-4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>43604.958333333336</v>
       </c>
@@ -14221,11 +15172,15 @@
         <v>77</v>
       </c>
       <c r="O240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.32362797206031613</v>
       </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P240">
+        <f t="shared" si="7"/>
+        <v>0.16181398603015806</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>43604.979166666664</v>
       </c>
@@ -14263,11 +15218,15 @@
         <v>76.099999999999994</v>
       </c>
       <c r="O241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.4393411805255969E-4</v>
       </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P241">
+        <f t="shared" si="7"/>
+        <v>2.2196705902627985E-4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>43605</v>
       </c>
@@ -14305,11 +15264,15 @@
         <v>76.099999999999994</v>
       </c>
       <c r="O242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0703135883253483E-2</v>
       </c>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P242">
+        <f t="shared" si="7"/>
+        <v>5.3515679416267416E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>43605.020833333336</v>
       </c>
@@ -14347,11 +15310,15 @@
         <v>76.900000000000006</v>
       </c>
       <c r="O243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0522882798282898E-3</v>
       </c>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P243">
+        <f t="shared" si="7"/>
+        <v>5.2614413991414492E-4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>43605.041666666664</v>
       </c>
@@ -14389,11 +15356,15 @@
         <v>76.7</v>
       </c>
       <c r="O244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.6442004372317028E-2</v>
       </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P244">
+        <f t="shared" si="7"/>
+        <v>8.2210021861585138E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>43605.0625</v>
       </c>
@@ -14431,11 +15402,15 @@
         <v>76.599999999999994</v>
       </c>
       <c r="O245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0703135883253483E-2</v>
       </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P245">
+        <f t="shared" si="7"/>
+        <v>5.3515679416267416E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>43605.083333333336</v>
       </c>
@@ -14473,11 +15448,15 @@
         <v>78.2</v>
       </c>
       <c r="O246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.8416831171474439E-2</v>
       </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P246">
+        <f t="shared" si="7"/>
+        <v>2.420841558573722E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>43605.104166666664</v>
       </c>
@@ -14515,11 +15494,15 @@
         <v>78.099999999999994</v>
       </c>
       <c r="O247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.11277570798972246</v>
       </c>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P247">
+        <f t="shared" si="7"/>
+        <v>5.638785399486123E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>43605.125</v>
       </c>
@@ -14557,11 +15540,15 @@
         <v>77.7</v>
       </c>
       <c r="O248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.670994814727331E-3</v>
       </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P248">
+        <f t="shared" si="7"/>
+        <v>8.3549740736366552E-4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>43605.145833333336</v>
       </c>
@@ -14599,11 +15586,15 @@
         <v>76.599999999999994</v>
       </c>
       <c r="O249">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.4183062386263188E-3</v>
       </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P249">
+        <f t="shared" si="7"/>
+        <v>4.2091531193131594E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>43605.166666666664</v>
       </c>
@@ -14641,11 +15632,15 @@
         <v>76.5</v>
       </c>
       <c r="O250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.4943129595929839E-3</v>
       </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P250">
+        <f t="shared" si="7"/>
+        <v>1.2471564797964919E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>43605.1875</v>
       </c>
@@ -14683,11 +15678,15 @@
         <v>77.5</v>
       </c>
       <c r="O251">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.9274034725327815E-2</v>
       </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P251">
+        <f t="shared" si="7"/>
+        <v>2.9637017362663907E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>43605.208333333336</v>
       </c>
@@ -14725,11 +15724,15 @@
         <v>78.099999999999994</v>
       </c>
       <c r="O252">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.10131623990534246</v>
       </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P252">
+        <f t="shared" si="7"/>
+        <v>5.0658119952671228E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>43605.229166666664</v>
       </c>
@@ -14767,11 +15770,15 @@
         <v>77.8</v>
       </c>
       <c r="O253">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.4393411805255969E-4</v>
       </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P253">
+        <f t="shared" si="7"/>
+        <v>2.2196705902627985E-4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>43605.25</v>
       </c>
@@ -14809,11 +15816,15 @@
         <v>77.7</v>
       </c>
       <c r="O254">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.6123083605980516E-2</v>
       </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P254">
+        <f t="shared" si="7"/>
+        <v>1.8061541802990258E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>43605.270833333336</v>
       </c>
@@ -14851,11 +15862,15 @@
         <v>77.2</v>
       </c>
       <c r="O255">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.4842393539419167E-3</v>
       </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P255">
+        <f t="shared" si="7"/>
+        <v>3.2421196769709584E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>43605.291666666664</v>
       </c>
@@ -14893,11 +15908,15 @@
         <v>75.099999999999994</v>
       </c>
       <c r="O256">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.8141620453914684E-2</v>
       </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P256">
+        <f t="shared" si="7"/>
+        <v>9.0708102269573421E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>43605.3125</v>
       </c>
@@ -14935,11 +15954,15 @@
         <v>72.900000000000006</v>
       </c>
       <c r="O257">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.9918358326367998E-3</v>
       </c>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P257">
+        <f t="shared" si="7"/>
+        <v>1.4959179163183999E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>43605.333333333336</v>
       </c>
@@ -14977,11 +16000,15 @@
         <v>71.3</v>
       </c>
       <c r="O258">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.5889769499352934E-2</v>
       </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P258">
+        <f t="shared" si="7"/>
+        <v>4.7944884749676467E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>43605.354166666664</v>
       </c>
@@ -15019,11 +16046,15 @@
         <v>70.7</v>
       </c>
       <c r="O259">
-        <f t="shared" ref="O259:O322" si="4">0.5*0.0765*0.000133*0.35*30429.57*(G259*2.24)^3</f>
+        <f t="shared" ref="O259:O322" si="8">0.5*0.0765*0.000133*0.35*30429.57*(G259*2.24)^3</f>
         <v>0.20887435184091632</v>
       </c>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P259">
+        <f t="shared" ref="P259:P322" si="9">O259*0.5</f>
+        <v>0.10443717592045816</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>43605.375</v>
       </c>
@@ -15061,11 +16092,15 @@
         <v>70.3</v>
       </c>
       <c r="O260">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.1884307819553965E-2</v>
       </c>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P260">
+        <f t="shared" si="9"/>
+        <v>1.0942153909776983E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>43605.395833333336</v>
       </c>
@@ -15103,11 +16138,15 @@
         <v>68.3</v>
       </c>
       <c r="O261">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.0660603145831242E-2</v>
       </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P261">
+        <f t="shared" si="9"/>
+        <v>4.5330301572915621E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>43605.416666666664</v>
       </c>
@@ -15145,11 +16184,15 @@
         <v>60.8</v>
       </c>
       <c r="O262">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.12506823762896663</v>
       </c>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P262">
+        <f t="shared" si="9"/>
+        <v>6.2534118814483314E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>43605.4375</v>
       </c>
@@ -15187,11 +16230,15 @@
         <v>55.8</v>
       </c>
       <c r="O263">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.5387715992720844</v>
       </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P263">
+        <f t="shared" si="9"/>
+        <v>0.2693857996360422</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>43605.458333333336</v>
       </c>
@@ -15229,11 +16276,15 @@
         <v>48.6</v>
       </c>
       <c r="O264">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.3224378516558169E-2</v>
       </c>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P264">
+        <f t="shared" si="9"/>
+        <v>3.1612189258279084E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>43605.479166666664</v>
       </c>
@@ -15271,11 +16322,15 @@
         <v>44.4</v>
       </c>
       <c r="O265">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.18315357633448839</v>
       </c>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P265">
+        <f t="shared" si="9"/>
+        <v>9.1576788167244197E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>43605.5</v>
       </c>
@@ -15313,11 +16368,15 @@
         <v>41.1</v>
       </c>
       <c r="O266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.62741531654824489</v>
       </c>
-    </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P266">
+        <f t="shared" si="9"/>
+        <v>0.31370765827412245</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>43605.520833333336</v>
       </c>
@@ -15355,11 +16414,15 @@
         <v>39.200000000000003</v>
       </c>
       <c r="O267">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.23689700795946866</v>
       </c>
-    </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P267">
+        <f t="shared" si="9"/>
+        <v>0.11844850397973433</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>43605.541666666664</v>
       </c>
@@ -15397,11 +16460,15 @@
         <v>43.3</v>
       </c>
       <c r="O268">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.4478362849374422</v>
       </c>
-    </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P268">
+        <f t="shared" si="9"/>
+        <v>1.2239181424687211</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>43605.5625</v>
       </c>
@@ -15439,11 +16506,15 @@
         <v>56.5</v>
       </c>
       <c r="O269">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.76711815599482347</v>
       </c>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P269">
+        <f t="shared" si="9"/>
+        <v>0.38355907799741173</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>43605.583333333336</v>
       </c>
@@ -15481,11 +16552,15 @@
         <v>62</v>
       </c>
       <c r="O270">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.20887435184091632</v>
       </c>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P270">
+        <f t="shared" si="9"/>
+        <v>0.10443717592045816</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>43605.604166666664</v>
       </c>
@@ -15523,11 +16598,15 @@
         <v>61.5</v>
       </c>
       <c r="O271">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.10131623990534246</v>
       </c>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P271">
+        <f t="shared" si="9"/>
+        <v>5.0658119952671228E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>43605.625</v>
       </c>
@@ -15565,11 +16644,15 @@
         <v>61.8</v>
       </c>
       <c r="O272">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.83283684747097486</v>
       </c>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P272">
+        <f t="shared" si="9"/>
+        <v>0.41641842373548743</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>43605.645833333336</v>
       </c>
@@ -15607,11 +16690,15 @@
         <v>68.900000000000006</v>
       </c>
       <c r="O273">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.13153603497853622</v>
       </c>
-    </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P273">
+        <f t="shared" si="9"/>
+        <v>6.576801748926811E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>43605.666666666664</v>
       </c>
@@ -15649,11 +16736,15 @@
         <v>71</v>
       </c>
       <c r="O274">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.0660603145831242E-2</v>
       </c>
-    </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P274">
+        <f t="shared" si="9"/>
+        <v>4.5330301572915621E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>43605.6875</v>
       </c>
@@ -15691,11 +16782,15 @@
         <v>68.5</v>
       </c>
       <c r="O275">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.841178355536382E-2</v>
       </c>
-    </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P275">
+        <f t="shared" si="9"/>
+        <v>1.420589177768191E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>43605.708333333336</v>
       </c>
@@ -15733,11 +16828,15 @@
         <v>64.599999999999994</v>
       </c>
       <c r="O276">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.21795460099630962</v>
       </c>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P276">
+        <f t="shared" si="9"/>
+        <v>0.10897730049815481</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>43605.729166666664</v>
       </c>
@@ -15775,11 +16874,15 @@
         <v>56.5</v>
       </c>
       <c r="O277">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.5318199463100415</v>
       </c>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P277">
+        <f t="shared" si="9"/>
+        <v>0.76590997315502074</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>43605.75</v>
       </c>
@@ -15817,11 +16920,15 @@
         <v>55.8</v>
       </c>
       <c r="O278">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0522882798282898</v>
       </c>
-    </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P278">
+        <f t="shared" si="9"/>
+        <v>0.52614413991414488</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>43605.770833333336</v>
       </c>
@@ -15859,11 +16966,15 @@
         <v>61.6</v>
       </c>
       <c r="O279">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.52210975921167824</v>
       </c>
-    </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P279">
+        <f t="shared" si="9"/>
+        <v>0.26105487960583912</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>43605.791666666664</v>
       </c>
@@ -15901,11 +17012,15 @@
         <v>63.6</v>
       </c>
       <c r="O280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.32362797206031613</v>
       </c>
-    </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P280">
+        <f t="shared" si="9"/>
+        <v>0.16181398603015806</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>43605.8125</v>
       </c>
@@ -15943,11 +17058,15 @@
         <v>67.599999999999994</v>
       </c>
       <c r="O281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.55578420209243329</v>
       </c>
-    </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P281">
+        <f t="shared" si="9"/>
+        <v>0.27789210104621664</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>43605.833333333336</v>
       </c>
@@ -15985,11 +17104,15 @@
         <v>73.099999999999994</v>
       </c>
       <c r="O282">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.950528105804895</v>
       </c>
-    </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P282">
+        <f t="shared" si="9"/>
+        <v>0.4752640529024475</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>43605.854166666664</v>
       </c>
@@ -16027,11 +17150,15 @@
         <v>75.599999999999994</v>
       </c>
       <c r="O283">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.950528105804895</v>
       </c>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P283">
+        <f t="shared" si="9"/>
+        <v>0.4752640529024475</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>43605.875</v>
       </c>
@@ -16069,11 +17196,15 @@
         <v>71.2</v>
       </c>
       <c r="O284">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.92615679258324668</v>
       </c>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P284">
+        <f t="shared" si="9"/>
+        <v>0.46307839629162334</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>43605.895833333336</v>
       </c>
@@ -16111,11 +17242,15 @@
         <v>63.8</v>
       </c>
       <c r="O285">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.81052991924273965</v>
       </c>
-    </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P285">
+        <f t="shared" si="9"/>
+        <v>0.40526495962136982</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>43605.916666666664</v>
       </c>
@@ -16153,11 +17288,15 @@
         <v>61.3</v>
       </c>
       <c r="O286">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.8565002066501852</v>
       </c>
-    </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P286">
+        <f t="shared" si="9"/>
+        <v>0.92825010332509261</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>43605.9375</v>
       </c>
@@ -16195,11 +17334,15 @@
         <v>59.5</v>
       </c>
       <c r="O287">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.2677025567393363</v>
       </c>
-    </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P287">
+        <f t="shared" si="9"/>
+        <v>1.1338512783696681</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>43605.958333333336</v>
       </c>
@@ -16237,11 +17380,15 @@
         <v>57.3</v>
       </c>
       <c r="O288">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.9451465610311844</v>
       </c>
-    </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P288">
+        <f t="shared" si="9"/>
+        <v>2.4725732805155922</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>43605.979166666664</v>
       </c>
@@ -16279,11 +17426,15 @@
         <v>56.8</v>
       </c>
       <c r="O289">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.4943129595929836</v>
       </c>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P289">
+        <f t="shared" si="9"/>
+        <v>1.2471564797964918</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>43606</v>
       </c>
@@ -16321,11 +17472,15 @@
         <v>56.6</v>
       </c>
       <c r="O290">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1893811033215442</v>
       </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P290">
+        <f t="shared" si="9"/>
+        <v>0.59469055166077212</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>43606.020833333336</v>
       </c>
@@ -16363,11 +17518,15 @@
         <v>57.4</v>
       </c>
       <c r="O291">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.34819719829755691</v>
       </c>
-    </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P291">
+        <f t="shared" si="9"/>
+        <v>0.17409859914877845</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>43606.041666666664</v>
       </c>
@@ -16405,11 +17564,15 @@
         <v>58.6</v>
       </c>
       <c r="O292">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.44393411805256006</v>
       </c>
-    </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P292">
+        <f t="shared" si="9"/>
+        <v>0.22196705902628003</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>43606.0625</v>
       </c>
@@ -16447,11 +17610,15 @@
         <v>60</v>
       </c>
       <c r="O293">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.37397947907959983</v>
       </c>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P293">
+        <f t="shared" si="9"/>
+        <v>0.18698973953979992</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>43606.083333333336</v>
       </c>
@@ -16489,11 +17656,15 @@
         <v>60.8</v>
       </c>
       <c r="O294">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.1810483219922268</v>
       </c>
-    </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P294">
+        <f t="shared" si="9"/>
+        <v>1.0905241609961134</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>43606.104166666664</v>
       </c>
@@ -16531,11 +17702,15 @@
         <v>60.2</v>
       </c>
       <c r="O295">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.6711756079559454</v>
       </c>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P295">
+        <f t="shared" si="9"/>
+        <v>1.8355878039779727</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>43606.125</v>
       </c>
@@ -16573,11 +17748,15 @@
         <v>60.3</v>
       </c>
       <c r="O296">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.5852097716117957</v>
       </c>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P296">
+        <f t="shared" si="9"/>
+        <v>2.2926048858058978</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>43606.145833333336</v>
       </c>
@@ -16615,11 +17794,15 @@
         <v>59.7</v>
       </c>
       <c r="O297">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.48982375225569658</v>
       </c>
-    </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P297">
+        <f t="shared" si="9"/>
+        <v>0.24491187612784829</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>43606.166666666664</v>
       </c>
@@ -16657,11 +17840,15 @@
         <v>59</v>
       </c>
       <c r="O298">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.27801176230025965</v>
       </c>
-    </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P298">
+        <f t="shared" si="9"/>
+        <v>0.13900588115012982</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>43606.1875</v>
       </c>
@@ -16699,11 +17886,15 @@
         <v>58.1</v>
       </c>
       <c r="O299">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.6354429385325064</v>
       </c>
-    </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P299">
+        <f t="shared" si="9"/>
+        <v>0.81772146926625322</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>43606.208333333336</v>
       </c>
@@ -16741,11 +17932,15 @@
         <v>58</v>
       </c>
       <c r="O300">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.707058219947071</v>
       </c>
-    </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P300">
+        <f t="shared" si="9"/>
+        <v>0.85352910997353548</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>43606.229166666664</v>
       </c>
@@ -16783,11 +17978,15 @@
         <v>57.8</v>
       </c>
       <c r="O301">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.589023776482529</v>
       </c>
-    </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P301">
+        <f t="shared" si="9"/>
+        <v>1.2945118882412645</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>43606.25</v>
       </c>
@@ -16825,11 +18024,15 @@
         <v>55.4</v>
       </c>
       <c r="O302">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.4462736167394663</v>
       </c>
-    </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P302">
+        <f t="shared" si="9"/>
+        <v>2.2231368083697332</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>43606.270833333336</v>
       </c>
@@ -16867,11 +18070,15 @@
         <v>53.6</v>
       </c>
       <c r="O303">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.5594247160859496</v>
       </c>
-    </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P303">
+        <f t="shared" si="9"/>
+        <v>2.7797123580429748</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>43606.291666666664</v>
       </c>
@@ -16909,11 +18116,15 @@
         <v>55</v>
       </c>
       <c r="O304">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.2431764980644822</v>
       </c>
-    </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P304">
+        <f t="shared" si="9"/>
+        <v>2.1215882490322411</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>43606.3125</v>
       </c>
@@ -16951,11 +18162,15 @@
         <v>55.2</v>
       </c>
       <c r="O305">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.1768780736934259</v>
       </c>
-    </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P305">
+        <f t="shared" si="9"/>
+        <v>2.0884390368467129</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>43606.333333333336</v>
       </c>
@@ -16993,11 +18208,15 @@
         <v>51.8</v>
       </c>
       <c r="O306">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.7436368079704769</v>
       </c>
-    </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P306">
+        <f t="shared" si="9"/>
+        <v>0.87181840398523847</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>43606.354166666664</v>
       </c>
@@ -17035,11 +18254,15 @@
         <v>49.1</v>
       </c>
       <c r="O307">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.4478362849374422</v>
       </c>
-    </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P307">
+        <f t="shared" si="9"/>
+        <v>1.2239181424687211</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>43606.375</v>
       </c>
@@ -17077,11 +18300,15 @@
         <v>47.5</v>
       </c>
       <c r="O308">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.4842393539419172</v>
       </c>
-    </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P308">
+        <f t="shared" si="9"/>
+        <v>3.2421196769709586</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>43606.395833333336</v>
       </c>
@@ -17119,11 +18346,15 @@
         <v>42.4</v>
       </c>
       <c r="O309">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.461353434214763</v>
       </c>
-    </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P309">
+        <f t="shared" si="9"/>
+        <v>5.7306767171073814</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>43606.416666666664</v>
       </c>
@@ -17161,11 +18392,15 @@
         <v>40.9</v>
       </c>
       <c r="O310">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.703135883253486</v>
       </c>
-    </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P310">
+        <f t="shared" si="9"/>
+        <v>5.351567941626743</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>43606.4375</v>
       </c>
@@ -17203,11 +18438,15 @@
         <v>38.1</v>
       </c>
       <c r="O311">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.2095975247553739</v>
       </c>
-    </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P311">
+        <f t="shared" si="9"/>
+        <v>4.1047987623776869</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>43606.458333333336</v>
       </c>
@@ -17245,11 +18484,15 @@
         <v>36.700000000000003</v>
       </c>
       <c r="O312">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.664529988167802</v>
       </c>
-    </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P312">
+        <f t="shared" si="9"/>
+        <v>6.3322649940839009</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>43606.479166666664</v>
       </c>
@@ -17287,11 +18530,15 @@
         <v>34.700000000000003</v>
       </c>
       <c r="O313">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.702979787441171</v>
       </c>
-    </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P313">
+        <f t="shared" si="9"/>
+        <v>3.8514898937205855</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>43606.5</v>
       </c>
@@ -17329,11 +18576,15 @@
         <v>33.4</v>
       </c>
       <c r="O314">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>14.546833180346276</v>
       </c>
-    </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P314">
+        <f t="shared" si="9"/>
+        <v>7.273416590173138</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>43606.520833333336</v>
       </c>
@@ -17371,11 +18622,15 @@
         <v>31.6</v>
       </c>
       <c r="O315">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.3135152551302962</v>
       </c>
-    </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P315">
+        <f t="shared" si="9"/>
+        <v>4.1567576275651481</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>43606.541666666664</v>
       </c>
@@ -17413,11 +18668,15 @@
         <v>30.7</v>
       </c>
       <c r="O316">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.0655950667556962</v>
       </c>
-    </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P316">
+        <f t="shared" si="9"/>
+        <v>4.5327975333778481</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>43606.5625</v>
       </c>
@@ -17455,11 +18714,15 @@
         <v>30.7</v>
       </c>
       <c r="O317">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.6396074997047423</v>
       </c>
-    </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P317">
+        <f t="shared" si="9"/>
+        <v>2.8198037498523711</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>43606.583333333336</v>
       </c>
@@ -17497,11 +18760,15 @@
         <v>29.3</v>
       </c>
       <c r="O318">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.1112738672847557</v>
       </c>
-    </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P318">
+        <f t="shared" si="9"/>
+        <v>2.0556369336423779</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>43606.604166666664</v>
       </c>
@@ -17539,11 +18806,15 @@
         <v>28.9</v>
       </c>
       <c r="O319">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.7379552456285356</v>
       </c>
-    </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P319">
+        <f t="shared" si="9"/>
+        <v>4.3689776228142678</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>43606.625</v>
       </c>
@@ -17581,11 +18852,15 @@
         <v>28.5</v>
       </c>
       <c r="O320">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.9451465610311844</v>
       </c>
-    </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P320">
+        <f t="shared" si="9"/>
+        <v>2.4725732805155922</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>43606.645833333336</v>
       </c>
@@ -17623,11 +18898,15 @@
         <v>28.2</v>
       </c>
       <c r="O321">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.986221187419115</v>
       </c>
-    </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P321">
+        <f t="shared" si="9"/>
+        <v>5.9931105937095577</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>43606.666666666664</v>
       </c>
@@ -17665,11 +18944,15 @@
         <v>28.5</v>
       </c>
       <c r="O322">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.4013243540340419</v>
       </c>
-    </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P322">
+        <f t="shared" si="9"/>
+        <v>4.7006621770170209</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>43606.6875</v>
       </c>
@@ -17707,11 +18990,15 @@
         <v>29.1</v>
       </c>
       <c r="O323">
-        <f t="shared" ref="O323:O385" si="5">0.5*0.0765*0.000133*0.35*30429.57*(G323*2.24)^3</f>
+        <f t="shared" ref="O323:O385" si="10">0.5*0.0765*0.000133*0.35*30429.57*(G323*2.24)^3</f>
         <v>9.0655950667556962</v>
       </c>
-    </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P323">
+        <f t="shared" ref="P323:P385" si="11">O323*0.5</f>
+        <v>4.5327975333778481</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>43606.708333333336</v>
       </c>
@@ -17749,11 +19036,15 @@
         <v>29.8</v>
       </c>
       <c r="O324">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>13.367958517818645</v>
       </c>
-    </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P324">
+        <f t="shared" si="11"/>
+        <v>6.6839792589093223</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>43606.729166666664</v>
       </c>
@@ -17791,11 +19082,15 @@
         <v>31</v>
       </c>
       <c r="O325">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>11.077920411584202</v>
       </c>
-    </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P325">
+        <f t="shared" si="11"/>
+        <v>5.538960205792101</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>43606.75</v>
       </c>
@@ -17833,11 +19128,15 @@
         <v>33.200000000000003</v>
       </c>
       <c r="O326">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>10.827109205183877</v>
       </c>
-    </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P326">
+        <f t="shared" si="11"/>
+        <v>5.4135546025919385</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>43606.770833333336</v>
       </c>
@@ -17875,11 +19174,15 @@
         <v>35.299999999999997</v>
       </c>
       <c r="O327">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.2885096724043184</v>
       </c>
-    </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P327">
+        <f t="shared" si="11"/>
+        <v>4.6442548362021592</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>43606.791666666664</v>
       </c>
@@ -17917,11 +19220,15 @@
         <v>37.299999999999997</v>
       </c>
       <c r="O328">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.4926099598044598</v>
       </c>
-    </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P328">
+        <f t="shared" si="11"/>
+        <v>1.7463049799022299</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>43606.8125</v>
       </c>
@@ -17959,11 +19266,15 @@
         <v>38.6</v>
       </c>
       <c r="O329">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.2473897126733284</v>
       </c>
-    </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P329">
+        <f t="shared" si="11"/>
+        <v>0.62369485633666422</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>43606.833333333336</v>
       </c>
@@ -18001,11 +19312,15 @@
         <v>40.700000000000003</v>
       </c>
       <c r="O330">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.50579502813246535</v>
       </c>
-    </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P330">
+        <f t="shared" si="11"/>
+        <v>0.25289751406623268</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>43606.854166666664</v>
       </c>
@@ -18043,11 +19358,15 @@
         <v>42.8</v>
       </c>
       <c r="O331">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.19147749328875519</v>
       </c>
-    </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P331">
+        <f t="shared" si="11"/>
+        <v>9.5738746644377593E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>43606.875</v>
       </c>
@@ -18085,11 +19404,15 @@
         <v>45.8</v>
       </c>
       <c r="O332">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.52210975921167824</v>
       </c>
-    </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P332">
+        <f t="shared" si="11"/>
+        <v>0.26105487960583912</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>43606.895833333336</v>
       </c>
@@ -18127,11 +19450,15 @@
         <v>50.1</v>
       </c>
       <c r="O333">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.45889695099449318</v>
       </c>
-    </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P333">
+        <f t="shared" si="11"/>
+        <v>0.22944847549724659</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>43606.916666666664</v>
       </c>
@@ -18169,11 +19496,15 @@
         <v>52.6</v>
       </c>
       <c r="O334">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.62741531654824489</v>
       </c>
-    </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P334">
+        <f t="shared" si="11"/>
+        <v>0.31370765827412245</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>43606.9375</v>
       </c>
@@ -18211,11 +19542,15 @@
         <v>52</v>
       </c>
       <c r="O335">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.1610637090505398</v>
       </c>
-    </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P335">
+        <f t="shared" si="11"/>
+        <v>0.5805318545252699</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>43606.958333333336</v>
       </c>
@@ -18253,11 +19588,15 @@
         <v>55.7</v>
       </c>
       <c r="O336">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.14513296363131747</v>
       </c>
-    </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P336">
+        <f t="shared" si="11"/>
+        <v>7.2566481815658737E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>43606.979166666664</v>
       </c>
@@ -18295,11 +19634,15 @@
         <v>59.6</v>
       </c>
       <c r="O337">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.4393411805255969E-4</v>
       </c>
-    </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P337">
+        <f t="shared" si="11"/>
+        <v>2.2196705902627985E-4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>43607</v>
       </c>
@@ -18337,11 +19680,15 @@
         <v>62.2</v>
       </c>
       <c r="O338">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.4943129595929839E-3</v>
       </c>
-    </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P338">
+        <f t="shared" si="11"/>
+        <v>1.2471564797964919E-3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>43607.020833333336</v>
       </c>
@@ -18379,11 +19726,15 @@
         <v>62.6</v>
       </c>
       <c r="O339">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.8416831171474439E-2</v>
       </c>
-    </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P339">
+        <f t="shared" si="11"/>
+        <v>2.420841558573722E-2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>43607.041666666664</v>
       </c>
@@ -18421,11 +19772,15 @@
         <v>65.099999999999994</v>
       </c>
       <c r="O340">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.8717049992050461E-3</v>
       </c>
-    </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P340">
+        <f t="shared" si="11"/>
+        <v>2.435852499602523E-3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>43607.0625</v>
       </c>
@@ -18463,11 +19818,15 @@
         <v>67.8</v>
       </c>
       <c r="O341">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.1986221187419117E-2</v>
       </c>
-    </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P341">
+        <f t="shared" si="11"/>
+        <v>5.9931105937095584E-3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>43607.083333333336</v>
       </c>
@@ -18505,11 +19864,15 @@
         <v>69.3</v>
       </c>
       <c r="O342">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.4943129595929839E-3</v>
       </c>
-    </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P342">
+        <f t="shared" si="11"/>
+        <v>1.2471564797964919E-3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>43607.104166666664</v>
       </c>
@@ -18547,11 +19910,15 @@
         <v>71.3</v>
       </c>
       <c r="O343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.4183062386263188E-3</v>
       </c>
-    </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P343">
+        <f t="shared" si="11"/>
+        <v>4.2091531193131594E-3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>43607.125</v>
       </c>
@@ -18589,11 +19956,15 @@
         <v>72</v>
       </c>
       <c r="O344">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.8141620453914684E-2</v>
       </c>
-    </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P344">
+        <f t="shared" si="11"/>
+        <v>9.0708102269573421E-3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>43607.145833333336</v>
       </c>
@@ -18631,11 +20002,15 @@
         <v>72</v>
       </c>
       <c r="O345">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.6123083605980516E-2</v>
       </c>
-    </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P345">
+        <f t="shared" si="11"/>
+        <v>1.8061541802990258E-2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>43607.166666666664</v>
       </c>
@@ -18673,11 +20048,15 @@
         <v>72</v>
       </c>
       <c r="O346">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.8141620453914684E-2</v>
       </c>
-    </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P346">
+        <f t="shared" si="11"/>
+        <v>9.0708102269573421E-3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>43607.1875</v>
       </c>
@@ -18715,11 +20094,15 @@
         <v>71.599999999999994</v>
       </c>
       <c r="O347">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.5116859997637926E-2</v>
       </c>
-    </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P347">
+        <f t="shared" si="11"/>
+        <v>2.2558429998818963E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>43607.208333333336</v>
       </c>
@@ -18757,11 +20140,15 @@
         <v>73.8</v>
       </c>
       <c r="O348">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6.734644990901055E-2</v>
       </c>
-    </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P348">
+        <f t="shared" si="11"/>
+        <v>3.3673224954505275E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>43607.229166666664</v>
       </c>
@@ -18799,11 +20186,15 @@
         <v>73.8</v>
       </c>
       <c r="O349">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.0703135883253483E-2</v>
       </c>
-    </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P349">
+        <f t="shared" si="11"/>
+        <v>5.3515679416267416E-3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>43607.25</v>
       </c>
@@ -18841,11 +20232,15 @@
         <v>74.8</v>
       </c>
       <c r="O350">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.0552505465396284E-3</v>
       </c>
-    </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P350">
+        <f t="shared" si="11"/>
+        <v>1.0276252732698142E-3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>43607.270833333336</v>
       </c>
@@ -18883,11 +20278,15 @@
         <v>66.099999999999994</v>
       </c>
       <c r="O351">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.11881601322561187</v>
       </c>
-    </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P351">
+        <f t="shared" si="11"/>
+        <v>5.9408006612805937E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>43607.291666666664</v>
       </c>
@@ -18925,11 +20324,15 @@
         <v>54.5</v>
       </c>
       <c r="O352">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.7989941931287854</v>
       </c>
-    </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P352">
+        <f t="shared" si="11"/>
+        <v>2.3994970965643927</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>43607.3125</v>
       </c>
@@ -18967,11 +20370,15 @@
         <v>48.5</v>
       </c>
       <c r="O353">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.8874790398488273</v>
       </c>
-    </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P353">
+        <f t="shared" si="11"/>
+        <v>1.4437395199244136</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>43607.333333333336</v>
       </c>
@@ -19009,11 +20416,15 @@
         <v>44.7</v>
       </c>
       <c r="O354">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.8362232225890658</v>
       </c>
-    </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P354">
+        <f t="shared" si="11"/>
+        <v>1.4181116112945329</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>43607.354166666664</v>
       </c>
@@ -19051,11 +20462,15 @@
         <v>42.8</v>
       </c>
       <c r="O355">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.9451465610311844</v>
       </c>
-    </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P355">
+        <f t="shared" si="11"/>
+        <v>2.4725732805155922</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>43607.375</v>
       </c>
@@ -19093,11 +20508,15 @@
         <v>39.799999999999997</v>
       </c>
       <c r="O356">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.3768424159820993</v>
       </c>
-    </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P356">
+        <f t="shared" si="11"/>
+        <v>1.6884212079910497</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>43607.395833333336</v>
       </c>
@@ -19135,11 +20554,15 @@
         <v>37</v>
       </c>
       <c r="O357">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6.2225758156927373</v>
       </c>
-    </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P357">
+        <f t="shared" si="11"/>
+        <v>3.1112879078463687</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>43607.416666666664</v>
       </c>
@@ -19177,11 +20600,15 @@
         <v>34</v>
       </c>
       <c r="O358">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.1768780736934259</v>
       </c>
-    </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P358">
+        <f t="shared" si="11"/>
+        <v>2.0884390368467129</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>43607.4375</v>
       </c>
@@ -19219,11 +20646,15 @@
         <v>32.5</v>
       </c>
       <c r="O359">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6.3962192149056545</v>
       </c>
-    </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P359">
+        <f t="shared" si="11"/>
+        <v>3.1981096074528272</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>43607.458333333336</v>
       </c>
@@ -19261,11 +20692,15 @@
         <v>31.2</v>
       </c>
       <c r="O360">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6.0521038964343035</v>
       </c>
-    </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P360">
+        <f t="shared" si="11"/>
+        <v>3.0260519482171517</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>43607.479166666664</v>
       </c>
@@ -19303,11 +20738,15 @@
         <v>28.4</v>
       </c>
       <c r="O361">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.7807342325762985</v>
       </c>
-    </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P361">
+        <f t="shared" si="11"/>
+        <v>0.89036711628814924</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>43607.5</v>
       </c>
@@ -19345,11 +20784,15 @@
         <v>26.5</v>
       </c>
       <c r="O362">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.3199305492182614</v>
       </c>
-    </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P362">
+        <f t="shared" si="11"/>
+        <v>1.6599652746091307</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>43607.520833333336</v>
       </c>
@@ -19387,11 +20830,15 @@
         <v>26.9</v>
       </c>
       <c r="O363">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.4344010015845825</v>
       </c>
-    </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P363">
+        <f t="shared" si="11"/>
+        <v>1.7172005007922913</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>43607.541666666664</v>
       </c>
@@ -19429,11 +20876,15 @@
         <v>25.8</v>
       </c>
       <c r="O364">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.0986771949743641</v>
       </c>
-    </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P364">
+        <f t="shared" si="11"/>
+        <v>1.5493385974871821</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>43607.5625</v>
       </c>
@@ -19471,11 +20922,15 @@
         <v>25.8</v>
       </c>
       <c r="O365">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.4344010015845825</v>
       </c>
-    </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P365">
+        <f t="shared" si="11"/>
+        <v>1.7172005007922913</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>43607.583333333336</v>
       </c>
@@ -19513,11 +20968,15 @@
         <v>25</v>
       </c>
       <c r="O366">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.5658591581026118</v>
       </c>
-    </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P366">
+        <f t="shared" si="11"/>
+        <v>0.78292957905130589</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>43607.604166666664</v>
       </c>
@@ -19555,11 +21014,15 @@
         <v>24.5</v>
       </c>
       <c r="O367">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.72528482516664994</v>
       </c>
-    </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P367">
+        <f t="shared" si="11"/>
+        <v>0.36264241258332497</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>43607.625</v>
       </c>
@@ -19597,11 +21060,15 @@
         <v>24.2</v>
       </c>
       <c r="O368">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.32362797206031613</v>
       </c>
-    </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P368">
+        <f t="shared" si="11"/>
+        <v>0.16181398603015806</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>43607.645833333336</v>
       </c>
@@ -19639,11 +21106,15 @@
         <v>24.7</v>
       </c>
       <c r="O369">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.133199383344462</v>
       </c>
-    </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P369">
+        <f t="shared" si="11"/>
+        <v>0.56659969167223101</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>43607.666666666664</v>
       </c>
@@ -19681,11 +21152,15 @@
         <v>25</v>
       </c>
       <c r="O370">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.19147749328875519</v>
       </c>
-    </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P370">
+        <f t="shared" si="11"/>
+        <v>9.5738746644377593E-2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>43607.6875</v>
       </c>
@@ -19723,11 +21198,15 @@
         <v>24.7</v>
       </c>
       <c r="O371">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.28898466884784413</v>
       </c>
-    </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P371">
+        <f t="shared" si="11"/>
+        <v>0.14449233442392206</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>43607.708333333336</v>
       </c>
@@ -19765,11 +21244,15 @@
         <v>26.2</v>
       </c>
       <c r="O372">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.5318199463100415</v>
       </c>
-    </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P372">
+        <f t="shared" si="11"/>
+        <v>0.76590997315502074</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>43607.729166666664</v>
       </c>
@@ -19807,11 +21290,15 @@
         <v>26.7</v>
       </c>
       <c r="O373">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.87867106602974521</v>
       </c>
-    </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P373">
+        <f t="shared" si="11"/>
+        <v>0.4393355330148726</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>43607.75</v>
       </c>
@@ -19849,11 +21336,15 @@
         <v>26.8</v>
       </c>
       <c r="O374">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.34819719829755691</v>
       </c>
-    </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P374">
+        <f t="shared" si="11"/>
+        <v>0.17409859914877845</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>43607.770833333336</v>
       </c>
@@ -19891,11 +21382,15 @@
         <v>29.3</v>
       </c>
       <c r="O375">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.25690631831745359</v>
       </c>
-    </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P375">
+        <f t="shared" si="11"/>
+        <v>0.12845315915872679</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>43607.791666666664</v>
       </c>
@@ -19933,11 +21428,15 @@
         <v>33.6</v>
       </c>
       <c r="O376">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7.6120390612578845E-2</v>
       </c>
-    </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P376">
+        <f t="shared" si="11"/>
+        <v>3.8060195306289422E-2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>43607.8125</v>
       </c>
@@ -19975,11 +21474,15 @@
         <v>39.4</v>
       </c>
       <c r="O377">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.5625087066027866E-2</v>
       </c>
-    </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P377">
+        <f t="shared" si="11"/>
+        <v>4.2812543533013933E-2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>43607.833333333336</v>
       </c>
@@ -20017,11 +21520,15 @@
         <v>44.4</v>
       </c>
       <c r="O378">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.23689700795946866</v>
       </c>
-    </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P378">
+        <f t="shared" si="11"/>
+        <v>0.11844850397973433</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>43607.854166666664</v>
       </c>
@@ -20059,11 +21566,15 @@
         <v>48</v>
       </c>
       <c r="O379">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.12506823762896663</v>
       </c>
-    </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P379">
+        <f t="shared" si="11"/>
+        <v>6.2534118814483314E-2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>43607.875</v>
       </c>
@@ -20101,11 +21612,15 @@
         <v>49.8</v>
       </c>
       <c r="O380">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.11277570798972246</v>
       </c>
-    </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P380">
+        <f t="shared" si="11"/>
+        <v>5.638785399486123E-2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>43607.895833333336</v>
       </c>
@@ -20143,11 +21658,15 @@
         <v>52.3</v>
       </c>
       <c r="O381">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.3367958517818648E-2</v>
       </c>
-    </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P381">
+        <f t="shared" si="11"/>
+        <v>6.6839792589093242E-3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>43607.916666666664</v>
       </c>
@@ -20185,11 +21704,15 @@
         <v>54.8</v>
       </c>
       <c r="O382">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.6396074997047407E-3</v>
       </c>
-    </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P382">
+        <f t="shared" si="11"/>
+        <v>2.8198037498523704E-3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>43607.9375</v>
       </c>
@@ -20227,11 +21750,15 @@
         <v>55.5</v>
       </c>
       <c r="O383">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.3367958517818648E-2</v>
       </c>
-    </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P383">
+        <f t="shared" si="11"/>
+        <v>6.6839792589093242E-3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>43607.958333333336</v>
       </c>
@@ -20269,11 +21796,15 @@
         <v>58.2</v>
       </c>
       <c r="O384">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.5150488265723556E-3</v>
       </c>
-    </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P384">
+        <f t="shared" si="11"/>
+        <v>4.7575244132861778E-3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>43607.979166666664</v>
       </c>
@@ -20311,8 +21842,12 @@
         <v>60.9</v>
       </c>
       <c r="O385">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.6442004372317028E-2</v>
+      </c>
+      <c r="P385">
+        <f t="shared" si="11"/>
+        <v>8.2210021861585138E-3</v>
       </c>
     </row>
   </sheetData>
